--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_phatom_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_phatom_1_1.xlsx
@@ -1628,7 +1628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  According to the “Regulations for Management and Treatment of Rhodes Island Wounded Personnel,” all wounded Operators must undergo registration at the Rhodes Island Medical Department.
+    <t xml:space="preserve">[name="Folinic"]  According to the 'Regulations for Management and Treatment of Rhodes Island Wounded Personnel,' all wounded Operators must undergo registration at the Rhodes Island Medical Department.
 </t>
   </si>
   <si>
@@ -1756,7 +1756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Whisperain"]  I believe it's because you told him “mouth shut” just prior, Folinic.
+    <t xml:space="preserve">[name="Whisperain"]  I believe it's because you told him 'mouth shut' just prior, Folinic.
 </t>
   </si>
   <si>
@@ -1896,7 +1896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  “It's lucky we had him supporting us. We wouldn't have come back alive otherwise.” I've already heard from plenty of others to that effect.
+    <t xml:space="preserve">[name="Folinic"]  'It's lucky we had him supporting us. We wouldn't have come back alive otherwise.' I've already heard from plenty of others to that effect.
 </t>
   </si>
   <si>
@@ -2180,31 +2180,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom"]  “Wanted: Multiple staff members for a Multimedia Escape Experience event—”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom"]  “Staff required to take charge in planning escape rooms in whole, for an urgent and pressing adventurous atmosphere.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom"]  “Staff required to plan deciphering and mechanisms within escape rooms.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom"]  “Staff required to—”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom"]  “—act out roles.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom"]  “Design (until opening) to last one month. Salaried for the duration, with three meals a day included.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom"]  “Interested operators and staff aboard, please find details at the Human Resources Department.”
+    <t xml:space="preserve">[name="Phantom"]  'Wanted: Multiple staff members for a Multimedia Escape Experience event—'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom"]  'Staff required to take charge in planning escape rooms in whole, for an urgent and pressing adventurous atmosphere.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom"]  'Staff required to plan deciphering and mechanisms within escape rooms.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom"]  'Staff required to—'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom"]  '—act out roles.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom"]  'Design (until opening) to last one month. Salaried for the duration, with three meals a day included.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom"]  'Interested operators and staff aboard, please find details at the Human Resources Department.'
 </t>
   </si>
   <si>
@@ -2232,7 +2232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Whisperain"]  “It scared me to death!”
+    <t xml:space="preserve">[name="Whisperain"]  'It scared me to death!'
 </t>
   </si>
   <si>
@@ -2304,7 +2304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="위스퍼레인"]  이 이상의 치료는 의료팀 전문 의사의 도움을 받아야 해요.
+    <t xml:space="preserve">[name="위스퍼레인"]  이 이상의 치료는 의료부 전문 의사의 도움을 받아야 해요.
 </t>
   </si>
   <si>
@@ -2376,7 +2376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  당신은 정식 의료팀 닥터는 아니지만, 저로서는 당신에게 충고해 둘 책임이 있습니다.
+    <t xml:space="preserve">[name="폴리닉"]  당신은 정식 의료부 닥터는 아니지만, 저로서는 당신에게 충고해 둘 책임이 있습니다.
 </t>
   </si>
   <si>
@@ -2384,7 +2384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  당신처럼 개인적으로 오퍼레이터 상처를 치료해 주는 것에 대해 작은 상처나 작은 병은 괜찮을지 몰라도, 만약 팬텀 오퍼레이터가 당신의 불완전한 치료로 합병증을 얻거나 상처가 악화하면 의료팀은 아주 골치가 아플 겁니다.
+    <t xml:space="preserve">[name="폴리닉"]  당신처럼 개인적으로 오퍼레이터 상처를 치료해 주는 것에 대해 작은 상처나 작은 병은 괜찮을지 몰라도, 만약 팬텀 오퍼레이터가 당신의 불완전한 치료로 합병증을 얻거나 상처가 악화하면 의료부는 아주 골치가 아플 겁니다.
 </t>
   </si>
   <si>
@@ -2456,7 +2456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  긴장하지 마세요. 전 당신을 데리고 로비를 지나 의료팀 쪽으로 갈 생각은 없으니까요.
+    <t xml:space="preserve">[name="폴리닉"]  긴장하지 마세요. 전 당신을 데리고 로비를 지나 의료부 쪽으로 갈 생각은 없으니까요.
 </t>
   </si>
   <si>
@@ -2708,7 +2708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="팬텀"]  그 고마움, 대신 전해드릴게요.
+    <t xml:space="preserve">[name="팬텀"]  나중에 블루포이즌에게 직접 감사 인사를 전하도록 하지
 </t>
   </si>
   <si>
@@ -2780,7 +2780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  물론 가장 중요한 것은 정기적으로 의료팀을 찾아와 치료를 받는 거예요.
+    <t xml:space="preserve">[name="폴리닉"]  물론 가장 중요한 것은 정기적으로 의료부를 찾아와 치료를 받는 거예요.
 </t>
   </si>
   <si>
@@ -2788,7 +2788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  의료팀에 오기 싫다면, 제가 다른 사람과의 접촉을 줄일 수 있는 순회 진료 쪽으로 알아봐 드릴게요.
+    <t xml:space="preserve">[name="폴리닉"]  의료부에 오기 싫다면, 제가 다른 사람과의 접촉을 줄일 수 있는 순회 진료 쪽으로 알아봐 드릴게요.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_phatom_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_phatom_1_1.xlsx
@@ -2708,7 +2708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="팬텀"]  나중에 블루포이즌에게 직접 감사 인사를 전하도록 하지
+    <t xml:space="preserve">[name="팬텀"]  나중에 블루포이즌에게 직접 감사 인사를 전하도록 하지.
 </t>
   </si>
   <si>
